--- a/biology/Mycologie/Albugo/Albugo.xlsx
+++ b/biology/Mycologie/Albugo/Albugo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albugo est un genre de « pseudochampignons » oomycètes de la famille des Albuginaceae. La taxinomie de ce genre est incomplète, mais plusieurs espèces sont des agents pathogènes des plantes.  Albugo est l'un des trois genres actuellement décrits dans la famille des Albuginaceae, la taxinomie de nombreuses espèces étant toujours en débat.
 Cet organisme provoque des maladies cryptogamiques nommées « rouille blanche » ou « rouille vésiculeuse » dans les parties aériennes des végétaux. Bien que la gamme d'hôtes soit très vaste, les dégâts liés à cette infection ne sont significatifs que chez quelques espèces cultivées, dont betterave (potagère et sucrière), chou de Bruxelles, chou, chou chinois, chou-fleur, cresson, laitue, moutarde, panais, radis, raifort, colza, salsifis (noir ou blanc), épinard, patate douce, navet, etc.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Index Fungorum                                      (30 juillet 2014)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (30 juillet 2014) :
 Cystopus Lév. 1847,
-Uredo sect. Albugo Pers. 1801.
-Liste d'espèces
-Selon Index Fungorum                                      (30 juillet 2014)[2] :
+Uredo sect. Albugo Pers. 1801.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Albugo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albugo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (30 juillet 2014) :
 Albugo achyranthis (Henn.) Miyabe 1935
 Albugo aechmantherae Z.Y. Zhang &amp; Ying X. Wang 1984
 Albugo arenosa Mirzaee &amp; Thines 2012
@@ -576,8 +627,43 @@
 Albugo tropica (Lagerh.) Lagerh. ex G.W. Wilson 1907
 Albugo voglmayrii Y.J. Choi, Thines &amp; H.D. Shin 2008
 Albugo wasabiae Hara 1930
-Liste des espèces et non-classés
-Selon NCBI  (30 juillet 2014)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albugo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albugo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces et non-classés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 juillet 2014) :
 Albugo candida
 non-classé Albugo candida 2VRR
 non-classé Albugo candida Ac 2V
